--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H2">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I2">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J2">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N2">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O2">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P2">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q2">
-        <v>99.59053764884251</v>
+        <v>166.924901193952</v>
       </c>
       <c r="R2">
-        <v>398.3621505953701</v>
+        <v>667.6996047758079</v>
       </c>
       <c r="S2">
-        <v>0.0006637510596610603</v>
+        <v>0.0002994168440113024</v>
       </c>
       <c r="T2">
-        <v>0.0003215308854158689</v>
+        <v>0.0001392157638030933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H3">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I3">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J3">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P3">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q3">
-        <v>587.690964091803</v>
+        <v>560.293987903287</v>
       </c>
       <c r="R3">
-        <v>3526.145784550818</v>
+        <v>3361.763927419722</v>
       </c>
       <c r="S3">
-        <v>0.003916842999127017</v>
+        <v>0.001005011573327727</v>
       </c>
       <c r="T3">
-        <v>0.002846065507271702</v>
+        <v>0.0007009297737094904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H4">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I4">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J4">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N4">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O4">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P4">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q4">
-        <v>1220.703418677635</v>
+        <v>1776.890759793047</v>
       </c>
       <c r="R4">
-        <v>7324.220512065809</v>
+        <v>10661.34455875828</v>
       </c>
       <c r="S4">
-        <v>0.008135744688276379</v>
+        <v>0.003187247796132623</v>
       </c>
       <c r="T4">
-        <v>0.005911613597592017</v>
+        <v>0.002222896666853415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H5">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I5">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J5">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N5">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O5">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P5">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q5">
-        <v>449.5272134482545</v>
+        <v>587.758714708858</v>
       </c>
       <c r="R5">
-        <v>1798.108853793018</v>
+        <v>2351.034858835432</v>
       </c>
       <c r="S5">
-        <v>0.002996009172325524</v>
+        <v>0.001054275654138545</v>
       </c>
       <c r="T5">
-        <v>0.001451311403380354</v>
+        <v>0.000490192163151526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H6">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I6">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J6">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N6">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O6">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P6">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q6">
-        <v>92.22489475064233</v>
+        <v>3261.426792110835</v>
       </c>
       <c r="R6">
-        <v>553.3493685038541</v>
+        <v>19568.56075266501</v>
       </c>
       <c r="S6">
-        <v>0.000614660519593852</v>
+        <v>0.00585009252713647</v>
       </c>
       <c r="T6">
-        <v>0.000446626046509309</v>
+        <v>0.004080056528750244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H7">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I7">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J7">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N7">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O7">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P7">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q7">
-        <v>768.8715211230431</v>
+        <v>916.5855041470967</v>
       </c>
       <c r="R7">
-        <v>4613.229126738258</v>
+        <v>5499.51302488258</v>
       </c>
       <c r="S7">
-        <v>0.005124375256292861</v>
+        <v>0.001644099454037453</v>
       </c>
       <c r="T7">
-        <v>0.003723485385169189</v>
+        <v>0.001146651729052855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H8">
         <v>380.699402</v>
       </c>
       <c r="I8">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J8">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N8">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O8">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P8">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q8">
-        <v>2483.681946899495</v>
+        <v>4366.486104353685</v>
       </c>
       <c r="R8">
-        <v>14902.09168139697</v>
+        <v>26198.91662612211</v>
       </c>
       <c r="S8">
-        <v>0.01655324454546456</v>
+        <v>0.007832261570523287</v>
       </c>
       <c r="T8">
-        <v>0.0120279567868256</v>
+        <v>0.005462489662763536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H9">
         <v>380.699402</v>
       </c>
       <c r="I9">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J9">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P9">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q9">
         <v>14656.38676454856</v>
       </c>
       <c r="R9">
-        <v>131907.480880937</v>
+        <v>131907.4808809371</v>
       </c>
       <c r="S9">
-        <v>0.09768189303358492</v>
+        <v>0.02628948130723324</v>
       </c>
       <c r="T9">
-        <v>0.1064667641171164</v>
+        <v>0.02750278803646661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H10">
         <v>380.699402</v>
       </c>
       <c r="I10">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J10">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N10">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O10">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P10">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q10">
-        <v>30443.04323547725</v>
+        <v>46480.59550190056</v>
       </c>
       <c r="R10">
-        <v>273987.3891192952</v>
+        <v>418325.359517105</v>
       </c>
       <c r="S10">
-        <v>0.2028968081094635</v>
+        <v>0.08337326015112986</v>
       </c>
       <c r="T10">
-        <v>0.2211440210488037</v>
+        <v>0.08722108569007113</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H11">
         <v>380.699402</v>
       </c>
       <c r="I11">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J11">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N11">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O11">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P11">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q11">
-        <v>11210.72996531254</v>
+        <v>15374.81970713904</v>
       </c>
       <c r="R11">
-        <v>67264.37979187525</v>
+        <v>92248.91824283425</v>
       </c>
       <c r="S11">
-        <v>0.07471727806398368</v>
+        <v>0.02757815018027486</v>
       </c>
       <c r="T11">
-        <v>0.05429124117114929</v>
+        <v>0.01923395419336421</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H12">
         <v>380.699402</v>
       </c>
       <c r="I12">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J12">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N12">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O12">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P12">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q12">
-        <v>2299.990657290508</v>
+        <v>85313.66300808542</v>
       </c>
       <c r="R12">
-        <v>20699.91591561457</v>
+        <v>767822.9670727688</v>
       </c>
       <c r="S12">
-        <v>0.01532897875669673</v>
+        <v>0.1530289821723151</v>
       </c>
       <c r="T12">
-        <v>0.01670756692731577</v>
+        <v>0.1600915442543719</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H13">
         <v>380.699402</v>
       </c>
       <c r="I13">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J13">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N13">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O13">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P13">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q13">
-        <v>19174.83690299818</v>
+        <v>23976.39800103907</v>
       </c>
       <c r="R13">
-        <v>172573.5321269837</v>
+        <v>215787.5820093516</v>
       </c>
       <c r="S13">
-        <v>0.1277964615279991</v>
+        <v>0.04300698918424836</v>
       </c>
       <c r="T13">
-        <v>0.1392896400955866</v>
+        <v>0.04499183889548853</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H14">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I14">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J14">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N14">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O14">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P14">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q14">
-        <v>1543.30547074836</v>
+        <v>7633.197607560597</v>
       </c>
       <c r="R14">
-        <v>9259.83282449016</v>
+        <v>45799.18564536358</v>
       </c>
       <c r="S14">
-        <v>0.01028582298854415</v>
+        <v>0.01369183339946902</v>
       </c>
       <c r="T14">
-        <v>0.007473908458450448</v>
+        <v>0.009549157383910394</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H15">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I15">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J15">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P15">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q15">
-        <v>9107.157179834734</v>
+        <v>25621.31052589124</v>
       </c>
       <c r="R15">
-        <v>81964.41461851262</v>
+        <v>230591.7947330211</v>
       </c>
       <c r="S15">
-        <v>0.06069738522679213</v>
+        <v>0.04595750473551198</v>
       </c>
       <c r="T15">
-        <v>0.06615611138130563</v>
+        <v>0.04807852603306912</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H16">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I16">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J16">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N16">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O16">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P16">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q16">
-        <v>18916.63915751855</v>
+        <v>81254.2538562859</v>
       </c>
       <c r="R16">
-        <v>170249.752417667</v>
+        <v>731288.284706573</v>
       </c>
       <c r="S16">
-        <v>0.1260756250789733</v>
+        <v>0.1457475312438514</v>
       </c>
       <c r="T16">
-        <v>0.1374140428624374</v>
+        <v>0.1524740413016464</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H17">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I17">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J17">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N17">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O17">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P17">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q17">
-        <v>6966.101641213703</v>
+        <v>26877.22672200749</v>
       </c>
       <c r="R17">
-        <v>41796.60984728223</v>
+        <v>161263.3603320449</v>
       </c>
       <c r="S17">
-        <v>0.04642767731976379</v>
+        <v>0.04821026906901834</v>
       </c>
       <c r="T17">
-        <v>0.03373538613418278</v>
+        <v>0.03362350632155491</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H18">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I18">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J18">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N18">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O18">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P18">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q18">
-        <v>1429.163733503675</v>
+        <v>149139.6131356611</v>
       </c>
       <c r="R18">
-        <v>12862.47360153307</v>
+        <v>1342256.51822095</v>
       </c>
       <c r="S18">
-        <v>0.009525091087338322</v>
+        <v>0.2675149840601743</v>
       </c>
       <c r="T18">
-        <v>0.01038171553085103</v>
+        <v>0.2798612805328122</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H19">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I19">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J19">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N19">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O19">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P19">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q19">
-        <v>11914.82296275761</v>
+        <v>41913.92792409715</v>
       </c>
       <c r="R19">
-        <v>107233.4066648185</v>
+        <v>377225.3513168744</v>
       </c>
       <c r="S19">
-        <v>0.07940991738682734</v>
+        <v>0.07518192869599896</v>
       </c>
       <c r="T19">
-        <v>0.08655152639267776</v>
+        <v>0.07865170959192339</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H20">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I20">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J20">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N20">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O20">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P20">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q20">
-        <v>279.1077984437138</v>
+        <v>211.475568246064</v>
       </c>
       <c r="R20">
-        <v>1116.431193774855</v>
+        <v>845.9022729842559</v>
       </c>
       <c r="S20">
-        <v>0.001860197779330231</v>
+        <v>0.0003793283493165696</v>
       </c>
       <c r="T20">
-        <v>0.0009011074714398248</v>
+        <v>0.0001763711258685212</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H21">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I21">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J21">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P21">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q21">
-        <v>1647.035300997124</v>
+        <v>709.8311194387215</v>
       </c>
       <c r="R21">
-        <v>9882.211805982744</v>
+        <v>4258.986716632329</v>
       </c>
       <c r="S21">
-        <v>0.01097716160736804</v>
+        <v>0.001273239594830759</v>
       </c>
       <c r="T21">
-        <v>0.007976250522535748</v>
+        <v>0.0008880012576647862</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H22">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I22">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J22">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N22">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O22">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P22">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q22">
-        <v>3421.086498610639</v>
+        <v>2251.125988098112</v>
       </c>
       <c r="R22">
-        <v>20526.51899166383</v>
+        <v>13506.75592858867</v>
       </c>
       <c r="S22">
-        <v>0.02280085881905418</v>
+        <v>0.004037893891247562</v>
       </c>
       <c r="T22">
-        <v>0.01656761270123545</v>
+        <v>0.00281616662590626</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H23">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I23">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J23">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N23">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O23">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P23">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q23">
-        <v>1259.824013888512</v>
+        <v>744.625920372481</v>
       </c>
       <c r="R23">
-        <v>5039.296055554047</v>
+        <v>2978.503681489924</v>
       </c>
       <c r="S23">
-        <v>0.008396475648654847</v>
+        <v>0.00133565178983025</v>
       </c>
       <c r="T23">
-        <v>0.004067377686844479</v>
+        <v>0.0006210197850097167</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H24">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I24">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J24">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N24">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O24">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P24">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q24">
-        <v>258.4651910035568</v>
+        <v>4131.870555089871</v>
       </c>
       <c r="R24">
-        <v>1550.791146021341</v>
+        <v>24791.22333053923</v>
       </c>
       <c r="S24">
-        <v>0.001722618920072706</v>
+        <v>0.007411426531448276</v>
       </c>
       <c r="T24">
-        <v>0.001251693338662097</v>
+        <v>0.005168984775321127</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H25">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I25">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J25">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N25">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O25">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P25">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q25">
-        <v>2154.803484477584</v>
+        <v>1161.213449576302</v>
       </c>
       <c r="R25">
-        <v>12928.82090686551</v>
+        <v>6967.28069745781</v>
       </c>
       <c r="S25">
-        <v>0.01436133522269387</v>
+        <v>0.002082893946970994</v>
       </c>
       <c r="T25">
-        <v>0.01043526657177349</v>
+        <v>0.0014526821597458</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H26">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I26">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J26">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N26">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O26">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P26">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q26">
-        <v>49.3332621554625</v>
+        <v>278.3679293092907</v>
       </c>
       <c r="R26">
-        <v>295.999572932775</v>
+        <v>1670.207575855744</v>
       </c>
       <c r="S26">
-        <v>0.0003287963475775622</v>
+        <v>0.0004993146395270654</v>
       </c>
       <c r="T26">
-        <v>0.000238910761540859</v>
+        <v>0.0003482392706530697</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H27">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I27">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J27">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P27">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q27">
-        <v>291.119147284515</v>
+        <v>934.3595599068941</v>
       </c>
       <c r="R27">
-        <v>2620.072325560634</v>
+        <v>8409.236039162046</v>
       </c>
       <c r="S27">
-        <v>0.001940251022432019</v>
+        <v>0.001675981166369251</v>
       </c>
       <c r="T27">
-        <v>0.00211474451935775</v>
+        <v>0.001753330704135321</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H28">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I28">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J28">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N28">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O28">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P28">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q28">
-        <v>604.6887906161733</v>
+        <v>2963.185228054662</v>
       </c>
       <c r="R28">
-        <v>5442.19911554556</v>
+        <v>26668.66705249196</v>
       </c>
       <c r="S28">
-        <v>0.004030130120914303</v>
+        <v>0.005315130114554679</v>
       </c>
       <c r="T28">
-        <v>0.004392573686068357</v>
+        <v>0.005560432905407606</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H29">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I29">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J29">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N29">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O29">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P29">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q29">
-        <v>222.6782221545225</v>
+        <v>980.1603905512627</v>
       </c>
       <c r="R29">
-        <v>1336.069332927135</v>
+        <v>5880.962343307577</v>
       </c>
       <c r="S29">
-        <v>0.001484105914154819</v>
+        <v>0.001758135117436738</v>
       </c>
       <c r="T29">
-        <v>0.001078384467377268</v>
+        <v>0.001226184138293289</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H30">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I30">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J30">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N30">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O30">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P30">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q30">
-        <v>45.68461037971166</v>
+        <v>5438.832769826613</v>
       </c>
       <c r="R30">
-        <v>411.161493417405</v>
+        <v>48949.49492843951</v>
       </c>
       <c r="S30">
-        <v>0.0003044788115981089</v>
+        <v>0.009755753224347199</v>
       </c>
       <c r="T30">
-        <v>0.0003318616460670993</v>
+        <v>0.01020599873879879</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H31">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I31">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J31">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N31">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O31">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P31">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q31">
-        <v>380.868917980715</v>
+        <v>1528.519753490104</v>
       </c>
       <c r="R31">
-        <v>3427.820261826434</v>
+        <v>13756.67778141094</v>
       </c>
       <c r="S31">
-        <v>0.002538415334125865</v>
+        <v>0.002741739293091899</v>
       </c>
       <c r="T31">
-        <v>0.002766703820090078</v>
+        <v>0.002868275480521231</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H32">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I32">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J32">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N32">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O32">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P32">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q32">
-        <v>187.5970066207075</v>
+        <v>144.39603408416</v>
       </c>
       <c r="R32">
-        <v>1125.582039724245</v>
+        <v>866.37620450496</v>
       </c>
       <c r="S32">
-        <v>0.001250296613246417</v>
+        <v>0.0002590063226276399</v>
       </c>
       <c r="T32">
-        <v>0.0009084934130911948</v>
+        <v>0.000180639952739647</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H33">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I33">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J33">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P33">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q33">
-        <v>1107.023501272777</v>
+        <v>484.6744206272101</v>
       </c>
       <c r="R33">
-        <v>9963.211511454992</v>
+        <v>4362.069785644891</v>
       </c>
       <c r="S33">
-        <v>0.007378090724144646</v>
+        <v>0.0008693711025689899</v>
       </c>
       <c r="T33">
-        <v>0.008041627986182815</v>
+        <v>0.0009094941387225327</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H34">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I34">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J34">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N34">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O34">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P34">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q34">
-        <v>2299.418325494401</v>
+        <v>1537.074318329457</v>
       </c>
       <c r="R34">
-        <v>20694.76492944961</v>
+        <v>13833.66886496511</v>
       </c>
       <c r="S34">
-        <v>0.01532516427948724</v>
+        <v>0.002757083803034804</v>
       </c>
       <c r="T34">
-        <v>0.01670340940095462</v>
+        <v>0.002884328167128138</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H35">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I35">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J35">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N35">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O35">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P35">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q35">
-        <v>846.7667875716156</v>
+        <v>508.43239561814</v>
       </c>
       <c r="R35">
-        <v>5080.600725429694</v>
+        <v>3050.59437370884</v>
       </c>
       <c r="S35">
-        <v>0.005643531662799334</v>
+        <v>0.0009119863016255909</v>
       </c>
       <c r="T35">
-        <v>0.00410071601242857</v>
+        <v>0.0006360507371153721</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H36">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I36">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J36">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N36">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O36">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P36">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q36">
-        <v>173.7224700215421</v>
+        <v>2821.251298447327</v>
       </c>
       <c r="R36">
-        <v>1563.502230193879</v>
+        <v>25391.26168602594</v>
       </c>
       <c r="S36">
-        <v>0.001157825595543168</v>
+        <v>0.005060540122545203</v>
       </c>
       <c r="T36">
-        <v>0.001261952862922832</v>
+        <v>0.005294093128497827</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H37">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I37">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J37">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N37">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O37">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P37">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q37">
-        <v>1448.31024356127</v>
+        <v>792.8793772002334</v>
       </c>
       <c r="R37">
-        <v>13034.79219205143</v>
+        <v>7135.9143948021</v>
       </c>
       <c r="S37">
-        <v>0.009652698756094471</v>
+        <v>0.001422205070093775</v>
       </c>
       <c r="T37">
-        <v>0.01052079939938667</v>
+        <v>0.001487842385707904</v>
       </c>
     </row>
   </sheetData>
